--- a/files/xlsx/interface_agent_mobile.xlsx
+++ b/files/xlsx/interface_agent_mobile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2640" windowWidth="28800" windowHeight="20400"/>
+    <workbookView xWindow="-30100" yWindow="800" windowWidth="28800" windowHeight="20400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>用例ID</t>
   </si>
@@ -29,21 +29,12 @@
     <t>用例名</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
     <t>请求方式</t>
   </si>
   <si>
-    <t>期望</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
     <t>登录接口</t>
   </si>
   <si>
@@ -56,12 +47,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{'code': 0}</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>登录状态监测</t>
   </si>
   <si>
@@ -84,9 +69,6 @@
   </si>
   <si>
     <t>下级报表（今天）</t>
-  </si>
-  <si>
-    <t>{'begin': '1545235200000', 'end': '1545321599000', 'userId': '126070', 'offset': '0', 'count': '15', 'account': ''}</t>
   </si>
   <si>
     <t>/agent/subordinate/subordinate_report.do</t>
@@ -225,6 +207,39 @@
   </si>
   <si>
     <t>{'sortOrder': 'asc', 'pageSize': '15', 'pageNumber': '1', 'account': 'bbb2', 'begin': '1545235200000', 'end': '1545321599000', 'status': '-1', 'issue': None, 'orderId': None, 'lotteryId': '6'}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否测试</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望code值</t>
+    <rPh sb="0" eb="1">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'begin': '1545235200000', 'end': '1545321599000', 'userId': '126070', 'offset': '0', 'count': '15', 'account': ''}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -667,19 +682,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -687,22 +702,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -710,19 +725,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -730,22 +745,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -753,22 +768,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -776,22 +791,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -799,22 +814,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -822,22 +837,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -845,22 +860,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28">
@@ -868,22 +883,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -891,22 +906,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28">
@@ -914,22 +929,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28">
@@ -937,22 +952,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -960,22 +975,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -983,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1006,22 +1021,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -1029,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -1052,19 +1067,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28">
@@ -1072,22 +1087,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28">
@@ -1095,22 +1110,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28">
@@ -1118,22 +1133,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -1141,19 +1156,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="28">
@@ -1161,22 +1176,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28">
@@ -1184,22 +1199,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/files/xlsx/interface_agent_mobile.xlsx
+++ b/files/xlsx/interface_agent_mobile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30100" yWindow="800" windowWidth="28800" windowHeight="20400"/>
+    <workbookView xWindow="6900" yWindow="1760" windowWidth="28800" windowHeight="20400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{'sortOrder': 'asc', 'pageSize': '15', 'pageNumber': '1', 'account': None, 'begin': '1545235200000', 'end': '1545321599000', 'status': '-1', 'issue': null, 'orderId': None, 'lotteryId': '-1'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{'sortOrder': 'asc', 'pageSize': '15', 'pageNumber': '1', 'account': None, 'begin': '1545235200000', 'end': '1545321599000', 'status': '-1', 'issue': None, 'orderId': None, 'lotteryId': '100001'}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>{'begin': '1545235200000', 'end': '1545321599000', 'userId': '126070', 'offset': '0', 'count': '15', 'account': ''}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'sortOrder': 'asc', 'pageSize': '15', 'pageNumber': '1', 'account': None, 'begin': '1545235200000', 'end': '1545321599000', 'status': '-1', 'issue': None, 'orderId': None, 'lotteryId': '-1'}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28">
@@ -1090,7 +1090,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>44</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28">
@@ -1113,7 +1113,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28">
@@ -1136,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>44</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="28">
@@ -1179,7 +1179,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>50</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/files/xlsx/interface_agent_mobile.xlsx
+++ b/files/xlsx/interface_agent_mobile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1760" windowWidth="28800" windowHeight="20400"/>
+    <workbookView xWindow="6900" yWindow="840" windowWidth="28800" windowHeight="20400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>登录接口</t>
   </si>
   <si>
-    <t>{'account': '1003', 'password':'123456'}</t>
-  </si>
-  <si>
     <t>/passport/login.do</t>
   </si>
   <si>
@@ -240,6 +237,10 @@
   </si>
   <si>
     <t>{'sortOrder': 'asc', 'pageSize': '15', 'pageNumber': '1', 'account': None, 'begin': '1545235200000', 'end': '1545321599000', 'status': '-1', 'issue': None, 'orderId': None, 'lotteryId': '-1'}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'account': '1002', 'password':'123456'}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +661,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -682,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -691,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -705,19 +706,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -725,19 +726,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -745,22 +746,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -768,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -791,22 +792,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -814,22 +815,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -837,22 +838,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -860,22 +861,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28">
@@ -883,22 +884,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -906,22 +907,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28">
@@ -929,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28">
@@ -952,22 +953,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -975,22 +976,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -998,22 +999,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1021,22 +1022,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -1044,22 +1045,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -1067,19 +1068,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28">
@@ -1087,22 +1088,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28">
@@ -1110,22 +1111,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28">
@@ -1133,22 +1134,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -1156,19 +1157,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="28">
@@ -1176,22 +1177,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28">
@@ -1199,22 +1200,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
